--- a/pub/SecurityTeam/DataControls2011/ST_E_Security_Control_2011_Glidein2.xlsx
+++ b/pub/SecurityTeam/DataControls2011/ST_E_Security_Control_2011_Glidein2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="670" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Survey-DATA" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
   <si>
     <t>1) Which core service or asset are you reporting for?</t>
   </si>
@@ -27,7 +27,7 @@
     <t>2) Have you read the OSG Security Plan, Data Integrity section 2.3.3 within the past 12 months and understand your responsibilities for the proper handling of Sensitive Personal Data, Restricted Data, Limited Distribution Data and Public Data. This document can be found at the OSG DocDB website: https://osg-docdb.opensciencegrid.org:440/cgi-bin/ShowDocument?docid=389</t>
   </si>
   <si>
-    <t>3) If your service does not store, process, transmit any data, you may indicate it here and conclude the survey.  </t>
+    <t>3) If your service does not store, process, transmit any data, you may indicate it here and conclude the survey.</t>
   </si>
   <si>
     <t>4) Are you the owner of the data? The data owner is responsible for collection, storage, and treatment of the data. Although you own the core service/process, there may be another person who owns the data. If so, please provide his/her name below, and answer the following questions with that person.</t>
@@ -45,10 +45,10 @@
     <t>5-C) Type</t>
   </si>
   <si>
-    <t>6) What is your data backup policy (e.g., weekly full, daily differential, etc.) ? </t>
-  </si>
-  <si>
-    <t>7-A) How long do you retain the back-ups? </t>
+    <t>6) What is your data backup policy (e.g., weekly full, daily differential, etc.) ?</t>
+  </si>
+  <si>
+    <t>7-A) How long do you retain the back-ups?</t>
   </si>
   <si>
     <t>7-B) How do you ensure that your data back-ups are stored correctly, protected and restorable?</t>
@@ -60,7 +60,7 @@
     <t>Phone Number</t>
   </si>
   <si>
-    <t>9) Are you aware of any attacks against the data? What do you think is the biggest threat against the data? </t>
+    <t>9) Are you aware of any attacks against the data? What do you think is the biggest threat against the data?</t>
   </si>
   <si>
     <t>10) If you own Restricted Data  please answer the following questions. If not, please skip to Question 11. If you have multiple data under restricted category and each one has dfferent answers for the following questions, please answer the questions for each data separately</t>
@@ -69,7 +69,7 @@
     <t>10-A) Who are the authorized people who can access this data? How do you determine this list of people?</t>
   </si>
   <si>
-    <t>10-B) Do you inform the authorized people about how they should treat restricted data? </t>
+    <t>10-B) Do you inform the authorized people about how they should treat restricted data?</t>
   </si>
   <si>
     <t>10-C) Which access control mechanims applies to this data?</t>
@@ -120,6 +120,18 @@
     <t>no data</t>
   </si>
   <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>1. Suggest to have monitoring system in place to track configuration changes to prevent any unauthorized/unintended change in configuration</t>
+  </si>
+  <si>
+    <t>2. Currently 7 day logs, though the service providers will be investigate how to increase it to 30 days</t>
+  </si>
+  <si>
+    <t>3. A new instance planned at GOC to provide redundancy.</t>
+  </si>
+  <si>
     <t>2) Please indicate if you have read the OSG Security Plan, Configuration Management section 2.4.4 within the past 12 months and understand your responsibilities for Monitoring, Version Control and Security Review of the OSG Core resources under your control. This document can be found at the OSG DocDB website: https://osg-docdb.opensciencegrid.org:440/cgi-bin/ShowDocument?docid=389 *</t>
   </si>
   <si>
@@ -129,7 +141,7 @@
     <t>4) Please indicate the version control system you employ for tracking changes to your service configuration. For e.g. do you maintain a change log that could be used to track and rollback any changes to configuration?</t>
   </si>
   <si>
-    <t>5)Please indicate the process of approving configuration changes for your core OSG service. Specifically what steps are taken to review the security implication of the proposed changes </t>
+    <t>5)Please indicate the process of approving configuration changes for your core OSG service. Specifically what steps are taken to review the security implication of the proposed changes</t>
   </si>
   <si>
     <t>We do not have any such monitoring in place.</t>
@@ -192,6 +204,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
         <sz val="10"/>
         <vertAlign val="superscript"/>
@@ -201,6 +214,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
         <sz val="10"/>
       </rPr>
@@ -223,15 +237,13 @@
     <t>5) What is the authentication and authorization techniques used for non-privileged user access?</t>
   </si>
   <si>
-    <t>6) At what frequency are you scanning web services for vulnerabilities and what types of vulnerability scanning are being done?
-</t>
+    <t>6) At what frequency are you scanning web services for vulnerabilities and what types of vulnerability scanning are being done?</t>
   </si>
   <si>
     <t>7) What remedial procedures are followed when vulnerabilities are detected?</t>
   </si>
   <si>
-    <t>8) What steps are being taken to scan for local vulnerabilities/intrusion detection and how often? 
-</t>
+    <t>8) What steps are being taken to scan for local vulnerabilities/intrusion detection and how often?</t>
   </si>
   <si>
     <t>ssh from LAN</t>
@@ -262,6 +274,7 @@
   <fonts count="6">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -282,12 +295,14 @@
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="true"/>
       <sz val="10"/>
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
       <vertAlign val="superscript"/>
@@ -342,11 +357,8 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
@@ -359,12 +371,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
@@ -385,14 +392,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AO2"/>
+  <dimension ref="A1:AO7"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A2" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A5" activeCellId="0" pane="topLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.32549019607843"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="9.36862745098039"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="550" outlineLevel="0" r="1">
@@ -486,42 +493,62 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AO1" s="2"/>
+      <c r="AO1" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AO2" s="6"/>
+      <c r="D2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AO2" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
+      <c r="A4" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
+      <c r="A7" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -541,51 +568,51 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="E2" activeCellId="0" pane="topLeft" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.643137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.5098039215686"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.7803921568627"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.32549019607843"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0039215686275"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7137254901961"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.9843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.6"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.8509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="6" style="0" width="9.36862745098039"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="409.5" outlineLevel="0" r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>36</v>
+      <c r="B1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -606,37 +633,37 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C4" activeCellId="0" pane="topLeft" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.32549019607843"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.478431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7803921568627"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.32549019607843"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.36862745098039"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5411764705882"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="4" style="0" width="9.36862745098039"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="408.95" outlineLevel="0" r="1" s="8">
-      <c r="A1" s="7" t="s">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="408.95" outlineLevel="0" r="1" s="6">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>41</v>
+      <c r="B1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -657,72 +684,72 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.32549019607843"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.9686274509804"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.6392156862745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.0901960784314"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.2705882352941"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.5098039215686"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.2039215686275"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.32549019607843"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.36862745098039"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.078431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.1803921568627"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.3960784313725"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3019607843137"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.6"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.2666666666667"/>
+    <col collapsed="false" hidden="false" max="257" min="9" style="0" width="9.36862745098039"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="408.95" outlineLevel="0" r="1" s="8">
-      <c r="A1" s="7" t="s">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="408.95" outlineLevel="0" r="1" s="6">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="E1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -743,72 +770,72 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.7686274509804"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.678431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.6392156862745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5019607843137"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.521568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.9450980392157"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.5058823529412"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.32549019607843"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.7882352941176"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5725490196078"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6196078431373"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3019607843137"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.0352941176471"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.5882352941176"/>
+    <col collapsed="false" hidden="false" max="257" min="9" style="0" width="9.36862745098039"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="408.95" outlineLevel="0" r="1" s="8">
-      <c r="A1" s="7" t="s">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="408.95" outlineLevel="0" r="1" s="6">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>63</v>
       </c>
+      <c r="E1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
